--- a/server/static/Excel/test1.xlsx
+++ b/server/static/Excel/test1.xlsx
@@ -1,23 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Показатели</t>
+  </si>
+  <si>
+    <t>(янв-май)</t>
+  </si>
+  <si>
+    <t>млрд тенге</t>
+  </si>
+  <si>
+    <t>23 494,9*</t>
+  </si>
+  <si>
+    <t>млрд долл. США</t>
+  </si>
+  <si>
+    <t>51,6*</t>
+  </si>
+  <si>
+    <t>на душу населения. $</t>
+  </si>
+  <si>
+    <t>Среднегодовой курс $</t>
+  </si>
+  <si>
+    <t>454,9*</t>
+  </si>
+  <si>
+    <t>Реальный рост ВВП в %</t>
+  </si>
+  <si>
+    <t>Производство товаров, ИФО</t>
+  </si>
+  <si>
+    <t>Производство услуг, ИФО</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +66,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006FC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -42,25 +140,195 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +366,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +611,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="16">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>69532.600000000006</v>
+      </c>
+      <c r="C4" s="6">
+        <v>70649</v>
+      </c>
+      <c r="D4" s="6">
+        <v>83951.6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>102891.8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>181.7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>171.1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>197.1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>223.4</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11">
+        <v>9812</v>
+      </c>
+      <c r="C6" s="11">
+        <v>9121</v>
+      </c>
+      <c r="D6" s="11">
+        <v>10220</v>
+      </c>
+      <c r="E6" s="11">
+        <v>11304</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>382.7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>412.9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>426</v>
+      </c>
+      <c r="E7" s="7">
+        <v>460.5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-2.5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13">
+        <v>104.9</v>
+      </c>
+      <c r="C9" s="13">
+        <v>102</v>
+      </c>
+      <c r="D9" s="13">
+        <v>103.6</v>
+      </c>
+      <c r="E9" s="13">
+        <v>103.2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15">
+        <v>104.4</v>
+      </c>
+      <c r="C10" s="15">
+        <v>94.7</v>
+      </c>
+      <c r="D10" s="15">
+        <v>104</v>
+      </c>
+      <c r="E10" s="15">
+        <v>102.6</v>
+      </c>
+      <c r="F10" s="15">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
